--- a/Allowance_Amounts_Income_Statement_Approach.xlsx
+++ b/Allowance_Amounts_Income_Statement_Approach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walterplourde/dev/local/accounting-ii/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F7D003-3F3D-FD4C-901C-DF239EE33B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA52F7-40BB-2D45-8DFF-DB1CF562073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{E6FD17BA-BC0B-4069-9B52-9A3A282E65C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Amount</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Estimated percentage bad debts</t>
-  </si>
-  <si>
-    <t>Estimated allowance</t>
-  </si>
-  <si>
-    <t>Current Allowance for Doubtful Accounts</t>
   </si>
   <si>
     <t xml:space="preserve">  Total Net Credit Sales</t>
@@ -75,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -123,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -131,8 +125,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,8 +148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8013AB7-DD4C-41FC-84BA-D60638B42A7B}" name="Table1" displayName="Table1" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{E8013AB7-DD4C-41FC-84BA-D60638B42A7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8013AB7-DD4C-41FC-84BA-D60638B42A7B}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{E8013AB7-DD4C-41FC-84BA-D60638B42A7B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA4154A3-8EA7-4A0F-98B9-A9E3AD7D0066}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{37141E41-297B-43CC-A4D9-459262E73AEF}" name="Column2"/>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04E4572-404C-4D87-8996-21250C4AD0DA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,7 +476,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="7">
+        <v>2021</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +509,7 @@
     </row>
     <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>57420</v>
@@ -527,26 +526,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>574.20000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>674.2</v>
       </c>
     </row>
   </sheetData>
